--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.836623395229</v>
+        <v>14.792724</v>
       </c>
       <c r="H2">
-        <v>10.836623395229</v>
+        <v>44.378172</v>
       </c>
       <c r="I2">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="J2">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.46188302273692</v>
+        <v>57.74909533333334</v>
       </c>
       <c r="N2">
-        <v>8.46188302273692</v>
+        <v>173.247286</v>
       </c>
       <c r="O2">
-        <v>0.0771172491660459</v>
+        <v>0.3614523877243856</v>
       </c>
       <c r="P2">
-        <v>0.0771172491660459</v>
+        <v>0.3614523877243855</v>
       </c>
       <c r="Q2">
-        <v>91.698239531882</v>
+        <v>854.2664285156881</v>
       </c>
       <c r="R2">
-        <v>91.698239531882</v>
+        <v>7688.397856641192</v>
       </c>
       <c r="S2">
-        <v>0.00548852148949289</v>
+        <v>0.02752183840571153</v>
       </c>
       <c r="T2">
-        <v>0.00548852148949289</v>
+        <v>0.02752183840571152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.836623395229</v>
+        <v>14.792724</v>
       </c>
       <c r="H3">
-        <v>10.836623395229</v>
+        <v>44.378172</v>
       </c>
       <c r="I3">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="J3">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.3934075558646</v>
+        <v>88.49285866666666</v>
       </c>
       <c r="N3">
-        <v>88.3934075558646</v>
+        <v>265.478576</v>
       </c>
       <c r="O3">
-        <v>0.8055720478296884</v>
+        <v>0.5538780283396172</v>
       </c>
       <c r="P3">
-        <v>0.8055720478296884</v>
+        <v>0.5538780283396171</v>
       </c>
       <c r="Q3">
-        <v>957.8860683038941</v>
+        <v>1309.050434227008</v>
       </c>
       <c r="R3">
-        <v>957.8860683038941</v>
+        <v>11781.45390804307</v>
       </c>
       <c r="S3">
-        <v>0.0573334700558114</v>
+        <v>0.04217358111370591</v>
       </c>
       <c r="T3">
-        <v>0.0573334700558114</v>
+        <v>0.0421735811137059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.836623395229</v>
+        <v>14.792724</v>
       </c>
       <c r="H4">
-        <v>10.836623395229</v>
+        <v>44.378172</v>
       </c>
       <c r="I4">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="J4">
-        <v>0.07117112641913895</v>
+        <v>0.0761423615956231</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.8722102625802</v>
+        <v>13.52762366666667</v>
       </c>
       <c r="N4">
-        <v>12.8722102625802</v>
+        <v>40.582871</v>
       </c>
       <c r="O4">
-        <v>0.1173107030042659</v>
+        <v>0.08466958393599726</v>
       </c>
       <c r="P4">
-        <v>0.1173107030042659</v>
+        <v>0.08466958393599724</v>
       </c>
       <c r="Q4">
-        <v>139.4912948797834</v>
+        <v>200.110403276868</v>
       </c>
       <c r="R4">
-        <v>139.4912948797834</v>
+        <v>1800.993629491812</v>
       </c>
       <c r="S4">
-        <v>0.008349134873834669</v>
+        <v>0.006446942076205664</v>
       </c>
       <c r="T4">
-        <v>0.008349134873834669</v>
+        <v>0.006446942076205663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.2145982790416</v>
+        <v>44.28072733333334</v>
       </c>
       <c r="H5">
-        <v>44.2145982790416</v>
+        <v>132.842182</v>
       </c>
       <c r="I5">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="J5">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.46188302273692</v>
+        <v>57.74909533333334</v>
       </c>
       <c r="N5">
-        <v>8.46188302273692</v>
+        <v>173.247286</v>
       </c>
       <c r="O5">
-        <v>0.0771172491660459</v>
+        <v>0.3614523877243856</v>
       </c>
       <c r="P5">
-        <v>0.0771172491660459</v>
+        <v>0.3614523877243855</v>
       </c>
       <c r="Q5">
-        <v>374.1387585345552</v>
+        <v>2557.171944202006</v>
       </c>
       <c r="R5">
-        <v>374.1387585345552</v>
+        <v>23014.54749781805</v>
       </c>
       <c r="S5">
-        <v>0.02239376270201065</v>
+        <v>0.08238421957682532</v>
       </c>
       <c r="T5">
-        <v>0.02239376270201065</v>
+        <v>0.0823842195768253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.2145982790416</v>
+        <v>44.28072733333334</v>
       </c>
       <c r="H6">
-        <v>44.2145982790416</v>
+        <v>132.842182</v>
       </c>
       <c r="I6">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="J6">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.3934075558646</v>
+        <v>88.49285866666666</v>
       </c>
       <c r="N6">
-        <v>88.3934075558646</v>
+        <v>265.478576</v>
       </c>
       <c r="O6">
-        <v>0.8055720478296884</v>
+        <v>0.5538780283396172</v>
       </c>
       <c r="P6">
-        <v>0.8055720478296884</v>
+        <v>0.5538780283396171</v>
       </c>
       <c r="Q6">
-        <v>3908.279005598154</v>
+        <v>3918.528145565871</v>
       </c>
       <c r="R6">
-        <v>3908.279005598154</v>
+        <v>35266.75331009283</v>
       </c>
       <c r="S6">
-        <v>0.2339267734982123</v>
+        <v>0.1262429317255042</v>
       </c>
       <c r="T6">
-        <v>0.2339267734982123</v>
+        <v>0.1262429317255042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.2145982790416</v>
+        <v>44.28072733333334</v>
       </c>
       <c r="H7">
-        <v>44.2145982790416</v>
+        <v>132.842182</v>
       </c>
       <c r="I7">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="J7">
-        <v>0.2903859116368799</v>
+        <v>0.2279255093471533</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8722102625802</v>
+        <v>13.52762366666667</v>
       </c>
       <c r="N7">
-        <v>12.8722102625802</v>
+        <v>40.582871</v>
       </c>
       <c r="O7">
-        <v>0.1173107030042659</v>
+        <v>0.08466958393599726</v>
       </c>
       <c r="P7">
-        <v>0.1173107030042659</v>
+        <v>0.08466958393599724</v>
       </c>
       <c r="Q7">
-        <v>569.1396057233402</v>
+        <v>599.0130150516136</v>
       </c>
       <c r="R7">
-        <v>569.1396057233402</v>
+        <v>5391.117135464522</v>
       </c>
       <c r="S7">
-        <v>0.034065375436657</v>
+        <v>0.01929835804482372</v>
       </c>
       <c r="T7">
-        <v>0.034065375436657</v>
+        <v>0.01929835804482372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.2102913922821</v>
+        <v>135.203738</v>
       </c>
       <c r="H8">
-        <v>97.2102913922821</v>
+        <v>405.611214</v>
       </c>
       <c r="I8">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="J8">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.46188302273692</v>
+        <v>57.74909533333334</v>
       </c>
       <c r="N8">
-        <v>8.46188302273692</v>
+        <v>173.247286</v>
       </c>
       <c r="O8">
-        <v>0.0771172491660459</v>
+        <v>0.3614523877243856</v>
       </c>
       <c r="P8">
-        <v>0.0771172491660459</v>
+        <v>0.3614523877243855</v>
       </c>
       <c r="Q8">
-        <v>822.5821143676609</v>
+        <v>7807.893555185024</v>
       </c>
       <c r="R8">
-        <v>822.5821143676609</v>
+        <v>70271.04199666521</v>
       </c>
       <c r="S8">
-        <v>0.04923496497454236</v>
+        <v>0.2515463297418487</v>
       </c>
       <c r="T8">
-        <v>0.04923496497454236</v>
+        <v>0.2515463297418487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.2102913922821</v>
+        <v>135.203738</v>
       </c>
       <c r="H9">
-        <v>97.2102913922821</v>
+        <v>405.611214</v>
       </c>
       <c r="I9">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="J9">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.3934075558646</v>
+        <v>88.49285866666666</v>
       </c>
       <c r="N9">
-        <v>88.3934075558646</v>
+        <v>265.478576</v>
       </c>
       <c r="O9">
-        <v>0.8055720478296884</v>
+        <v>0.5538780283396172</v>
       </c>
       <c r="P9">
-        <v>0.8055720478296884</v>
+        <v>0.5538780283396171</v>
       </c>
       <c r="Q9">
-        <v>8592.748905662349</v>
+        <v>11964.56527803903</v>
       </c>
       <c r="R9">
-        <v>8592.748905662349</v>
+        <v>107681.0875023513</v>
       </c>
       <c r="S9">
-        <v>0.5143118042756647</v>
+        <v>0.385461515500407</v>
       </c>
       <c r="T9">
-        <v>0.5143118042756647</v>
+        <v>0.3854615155004069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.2102913922821</v>
+        <v>135.203738</v>
       </c>
       <c r="H10">
-        <v>97.2102913922821</v>
+        <v>405.611214</v>
       </c>
       <c r="I10">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="J10">
-        <v>0.6384429619439812</v>
+        <v>0.6959321290572236</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8722102625802</v>
+        <v>13.52762366666667</v>
       </c>
       <c r="N10">
-        <v>12.8722102625802</v>
+        <v>40.582871</v>
       </c>
       <c r="O10">
-        <v>0.1173107030042659</v>
+        <v>0.08466958393599726</v>
       </c>
       <c r="P10">
-        <v>0.1173107030042659</v>
+        <v>0.08466958393599724</v>
       </c>
       <c r="Q10">
-        <v>1251.311310488145</v>
+        <v>1828.985285990599</v>
       </c>
       <c r="R10">
-        <v>1251.311310488145</v>
+        <v>16460.8675739154</v>
       </c>
       <c r="S10">
-        <v>0.07489619269377419</v>
+        <v>0.05892428381496786</v>
       </c>
       <c r="T10">
-        <v>0.07489619269377419</v>
+        <v>0.05892428381496786</v>
       </c>
     </row>
   </sheetData>
